--- a/analysis/paper_data/firstyear/loca_types.xlsx
+++ b/analysis/paper_data/firstyear/loca_types.xlsx
@@ -28,7 +28,8 @@
     <t>NP</t>
   </si>
   <si>
-    <t>PrNP</t>
+    <t>PrNP
+(proper noun phrase)</t>
   </si>
 </sst>
 </file>
